--- a/Excel/Educación Sexual.xlsx
+++ b/Excel/Educación Sexual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D580FF-052B-41C8-9F9E-108B8C2FE492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0062F80-E625-4B9A-904B-8BC34C2FF443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="203">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -569,6 +569,66 @@
   </si>
   <si>
     <t xml:space="preserve">Samuel Bonnett </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentina Carvajal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Vidal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hans lubinus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Moya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helen Cervera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Camila Vergara Peña </t>
+  </si>
+  <si>
+    <t>Son enfermedades que se transmiten por contacto con la saliva o las mucosas de otra persona infectada y que pueden afectar a la boca, la garganta o el sistema respiratorio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofía Flórez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadya </t>
+  </si>
+  <si>
+    <t>Lucia Garzon</t>
+  </si>
+  <si>
+    <t>Farid Radi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolle jimenez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofía Contreras Medina </t>
+  </si>
+  <si>
+    <t>Carlos Chemas</t>
+  </si>
+  <si>
+    <t>Isabella Brume</t>
+  </si>
+  <si>
+    <t>Luisa Pertuz</t>
+  </si>
+  <si>
+    <t>Jorge Moreno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucia verá </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninguna </t>
+  </si>
+  <si>
+    <t>Son las formas de regular o mejorar el ciclo menstrual y los síntomas asociados al tener relaciones sexuales con frecuencia.</t>
   </si>
 </sst>
 </file>
@@ -836,11 +896,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -903,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1">
         <v>19</v>
@@ -2619,7 +2679,7 @@
         <v>83</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E41" s="1">
         <v>19</v>
@@ -2663,7 +2723,7 @@
         <v>84</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E42" s="1">
         <v>43</v>
@@ -6788,7 +6848,755 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>45159.757255069446</v>
+      </c>
+      <c r="B136" s="3">
+        <v>8</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136" s="1">
+        <v>19</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>45159.767265497685</v>
+      </c>
+      <c r="B137" s="3">
+        <v>10</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" s="1">
+        <v>20</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>45160.365616782408</v>
+      </c>
+      <c r="B138" s="3">
+        <v>7</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="1">
+        <v>21</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>45160.515888958333</v>
+      </c>
+      <c r="B139" s="3">
+        <v>5</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="1">
+        <v>20</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>45160.519244560186</v>
+      </c>
+      <c r="B140" s="3">
+        <v>2</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="1">
+        <v>21</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>45160.519763645832</v>
+      </c>
+      <c r="B141" s="3">
+        <v>7</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="1">
+        <v>22</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>45160.52029320602</v>
+      </c>
+      <c r="B142" s="3">
+        <v>5</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="1">
+        <v>17</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>45160.532838935185</v>
+      </c>
+      <c r="B143" s="3">
+        <v>4</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" s="1">
+        <v>17</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>45160.548235821756</v>
+      </c>
+      <c r="B144" s="3">
+        <v>8</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" s="1">
+        <v>20</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>45160.572161296295</v>
+      </c>
+      <c r="B145" s="3">
+        <v>4</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" s="1">
+        <v>20</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>45160.572217372683</v>
+      </c>
+      <c r="B146" s="3">
+        <v>5</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E146" s="1">
+        <v>19</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>45160.573586168983</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" s="1">
+        <v>18</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>45160.57362087963</v>
+      </c>
+      <c r="B148" s="3">
+        <v>8</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="1">
+        <v>24</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>45160.583482650458</v>
+      </c>
+      <c r="B149" s="3">
+        <v>4</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" s="1">
+        <v>19</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>45160.586347233795</v>
+      </c>
+      <c r="B150" s="3">
+        <v>7</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" s="1">
+        <v>19</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>45160.586815300921</v>
+      </c>
+      <c r="B151" s="3">
+        <v>10</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="1">
+        <v>20</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>45161.886528425923</v>
+      </c>
+      <c r="B152" s="3">
+        <v>4</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" s="1">
+        <v>40</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Educación Sexual.xlsx
+++ b/Excel/Educación Sexual.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajos\Analisis De Datos\TrabajoDeAnalisisDeDatos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0062F80-E625-4B9A-904B-8BC34C2FF443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421CD068-AC7D-408E-9C42-551A85C7FC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -637,7 +650,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="0&quot; / 12&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -677,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,15 +913,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
+      <selection pane="bottomLeft" activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="20" width="18.88671875" customWidth="1"/>
+    <col min="1" max="20" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -952,12 +965,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45151.544490844906</v>
       </c>
       <c r="B2" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -996,12 +1009,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45151.549103379628</v>
       </c>
       <c r="B3" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
@@ -1040,12 +1053,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45151.54916790509</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -1084,12 +1097,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45151.549576898149</v>
       </c>
       <c r="B5" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>36</v>
@@ -1128,12 +1141,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45151.5509241088</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -1172,12 +1185,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45151.55169925926</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
@@ -1216,12 +1229,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45151.551913564814</v>
       </c>
       <c r="B8" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -1260,12 +1273,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45151.55194873843</v>
       </c>
       <c r="B9" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>44</v>
@@ -1304,12 +1317,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45151.552805833329</v>
       </c>
       <c r="B10" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
@@ -1348,12 +1361,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45151.55292962963</v>
       </c>
       <c r="B11" s="3">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>48</v>
@@ -1392,12 +1405,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45151.553631620365</v>
       </c>
       <c r="B12" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>51</v>
@@ -1436,12 +1449,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45151.55486290509</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>52</v>
@@ -1480,12 +1493,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45151.555666087967</v>
       </c>
       <c r="B14" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>54</v>
@@ -1524,12 +1537,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45151.555779988426</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>55</v>
@@ -1568,12 +1581,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45151.556441666668</v>
       </c>
       <c r="B16" s="3">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>56</v>
@@ -1612,12 +1625,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45151.558708055556</v>
       </c>
       <c r="B17" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>57</v>
@@ -1656,12 +1669,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45151.559275196763</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>58</v>
@@ -1700,12 +1713,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45151.561280706017</v>
       </c>
       <c r="B19" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>59</v>
@@ -1744,12 +1757,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45151.561673229167</v>
       </c>
       <c r="B20" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>60</v>
@@ -1788,12 +1801,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45151.563925960647</v>
       </c>
       <c r="B21" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>61</v>
@@ -1832,12 +1845,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45151.573992430553</v>
       </c>
       <c r="B22" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>62</v>
@@ -1876,12 +1889,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45151.613719710644</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>63</v>
@@ -1920,12 +1933,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45151.643784270833</v>
       </c>
       <c r="B24" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>65</v>
@@ -1964,12 +1977,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45151.645406550924</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>66</v>
@@ -2008,12 +2021,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45151.652625162038</v>
       </c>
       <c r="B26" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>67</v>
@@ -2052,12 +2065,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45151.673363287038</v>
       </c>
       <c r="B27" s="3">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>68</v>
@@ -2096,12 +2109,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45151.731240173613</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>69</v>
@@ -2140,12 +2153,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45151.784893009259</v>
       </c>
       <c r="B29" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>70</v>
@@ -2184,12 +2197,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45151.785315231478</v>
       </c>
       <c r="B30" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>71</v>
@@ -2228,12 +2241,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45151.785725497684</v>
       </c>
       <c r="B31" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>72</v>
@@ -2272,12 +2285,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45151.786394236115</v>
       </c>
       <c r="B32" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>73</v>
@@ -2316,12 +2329,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45151.786531701393</v>
       </c>
       <c r="B33" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>74</v>
@@ -2360,12 +2373,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45151.787184583329</v>
       </c>
       <c r="B34" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>75</v>
@@ -2404,12 +2417,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45151.787480671293</v>
       </c>
       <c r="B35" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>76</v>
@@ -2448,12 +2461,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45151.788132905094</v>
       </c>
       <c r="B36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>77</v>
@@ -2492,12 +2505,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45151.788435833332</v>
       </c>
       <c r="B37" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>78</v>
@@ -2536,12 +2549,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45151.790296585648</v>
       </c>
       <c r="B38" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>79</v>
@@ -2580,12 +2593,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45151.790741342593</v>
       </c>
       <c r="B39" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>80</v>
@@ -2624,12 +2637,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45151.791673888889</v>
       </c>
       <c r="B40" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>81</v>
@@ -2668,12 +2681,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45151.792119120371</v>
       </c>
       <c r="B41" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>83</v>
@@ -2712,12 +2725,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45151.793880648147</v>
       </c>
       <c r="B42" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>84</v>
@@ -2756,12 +2769,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45151.794075451384</v>
       </c>
       <c r="B43" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>86</v>
@@ -2800,12 +2813,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45151.794359942127</v>
       </c>
       <c r="B44" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>87</v>
@@ -2844,12 +2857,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45151.795504814814</v>
       </c>
       <c r="B45" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>88</v>
@@ -2888,12 +2901,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45151.795927777777</v>
       </c>
       <c r="B46" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>89</v>
@@ -2932,12 +2945,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45151.79593792824</v>
       </c>
       <c r="B47" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>90</v>
@@ -2976,12 +2989,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45151.798876747685</v>
       </c>
       <c r="B48" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>91</v>
@@ -3020,12 +3033,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45151.800203182866</v>
       </c>
       <c r="B49" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>92</v>
@@ -3064,12 +3077,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>45151.800698680556</v>
       </c>
       <c r="B50" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>93</v>
@@ -3108,12 +3121,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45151.801323842592</v>
       </c>
       <c r="B51" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>94</v>
@@ -3152,12 +3165,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>45151.801741354167</v>
       </c>
       <c r="B52" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>95</v>
@@ -3196,12 +3209,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>45151.802052256942</v>
       </c>
       <c r="B53" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>97</v>
@@ -3240,12 +3253,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45151.80475836806</v>
       </c>
       <c r="B54" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>98</v>
@@ -3284,12 +3297,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45151.805143113423</v>
       </c>
       <c r="B55" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>99</v>
@@ -3328,12 +3341,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45151.807513090273</v>
       </c>
       <c r="B56" s="3">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>100</v>
@@ -3372,12 +3385,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45151.807621504631</v>
       </c>
       <c r="B57" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>101</v>
@@ -3416,12 +3429,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45151.810283252315</v>
       </c>
       <c r="B58" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>102</v>
@@ -3460,12 +3473,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45151.813982175925</v>
       </c>
       <c r="B59" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>103</v>
@@ -3504,12 +3517,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45151.814243194443</v>
       </c>
       <c r="B60" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>104</v>
@@ -3548,12 +3561,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>45151.817403680558</v>
       </c>
       <c r="B61" s="3">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>105</v>
@@ -3592,12 +3605,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>45151.817978703708</v>
       </c>
       <c r="B62" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>106</v>
@@ -3636,12 +3649,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>45151.818382268517</v>
       </c>
       <c r="B63" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>107</v>
@@ -3680,12 +3693,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>45151.819068391203</v>
       </c>
       <c r="B64" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>108</v>
@@ -3724,12 +3737,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>45151.82035091435</v>
       </c>
       <c r="B65" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>110</v>
@@ -3768,12 +3781,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>45151.82788005787</v>
       </c>
       <c r="B66" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>111</v>
@@ -3812,12 +3825,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>45151.838443275468</v>
       </c>
       <c r="B67" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>112</v>
@@ -3856,12 +3869,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>45151.840104201387</v>
       </c>
       <c r="B68" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>113</v>
@@ -3900,12 +3913,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45151.843709236113</v>
       </c>
       <c r="B69" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>114</v>
@@ -3944,12 +3957,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>45151.852884953703</v>
       </c>
       <c r="B70" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>115</v>
@@ -3988,12 +4001,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45151.855338344903</v>
       </c>
       <c r="B71" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>116</v>
@@ -4032,12 +4045,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>45151.8560062037</v>
       </c>
       <c r="B72" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>117</v>
@@ -4076,12 +4089,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>45151.856827465279</v>
       </c>
       <c r="B73" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>118</v>
@@ -4120,12 +4133,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>45151.857394432867</v>
       </c>
       <c r="B74" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>119</v>
@@ -4164,12 +4177,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>45151.866939502317</v>
       </c>
       <c r="B75" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>120</v>
@@ -4208,12 +4221,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>45151.914987013894</v>
       </c>
       <c r="B76" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>121</v>
@@ -4252,12 +4265,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>45151.957029722224</v>
       </c>
       <c r="B77" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>122</v>
@@ -4296,12 +4309,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>45151.97930042824</v>
       </c>
       <c r="B78" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>123</v>
@@ -4340,12 +4353,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>45152.012824837962</v>
       </c>
       <c r="B79" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>124</v>
@@ -4384,12 +4397,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>45152.389457048615</v>
       </c>
       <c r="B80" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>125</v>
@@ -4428,12 +4441,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45152.528335115741</v>
       </c>
       <c r="B81" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>126</v>
@@ -4472,12 +4485,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>45152.593485347221</v>
       </c>
       <c r="B82" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>127</v>
@@ -4516,12 +4529,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>45152.594186597227</v>
       </c>
       <c r="B83" s="3">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>128</v>
@@ -4560,12 +4573,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>45152.59700569445</v>
       </c>
       <c r="B84" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>129</v>
@@ -4604,12 +4617,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>45152.61150431713</v>
       </c>
       <c r="B85" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>130</v>
@@ -4648,12 +4661,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>45152.618777777781</v>
       </c>
       <c r="B86" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>131</v>
@@ -4692,12 +4705,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>45152.626213333337</v>
       </c>
       <c r="B87" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>132</v>
@@ -4736,7 +4749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>45152.627012893514</v>
       </c>
@@ -4780,12 +4793,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>45152.628997662032</v>
       </c>
       <c r="B89" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>134</v>
@@ -4824,12 +4837,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>45152.629473379631</v>
       </c>
       <c r="B90" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>135</v>
@@ -4868,12 +4881,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>45152.631957511578</v>
       </c>
       <c r="B91" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>136</v>
@@ -4912,12 +4925,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>45152.632456087958</v>
       </c>
       <c r="B92" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>137</v>
@@ -4956,12 +4969,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>45152.632816689817</v>
       </c>
       <c r="B93" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>138</v>
@@ -5000,12 +5013,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>45152.633785729166</v>
       </c>
       <c r="B94" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>67</v>
@@ -5044,12 +5057,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45152.641606412042</v>
       </c>
       <c r="B95" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>140</v>
@@ -5088,12 +5101,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45152.702809386574</v>
       </c>
       <c r="B96" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>141</v>
@@ -5132,12 +5145,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>45153.766807233798</v>
       </c>
       <c r="B97" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>142</v>
@@ -5176,12 +5189,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>45153.767844467591</v>
       </c>
       <c r="B98" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>143</v>
@@ -5220,12 +5233,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>45153.768166041671</v>
       </c>
       <c r="B99" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>144</v>
@@ -5264,12 +5277,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>45153.768687743053</v>
       </c>
       <c r="B100" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>145</v>
@@ -5308,12 +5321,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>45153.769181782409</v>
       </c>
       <c r="B101" s="3">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>146</v>
@@ -5352,12 +5365,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>45153.770053576387</v>
       </c>
       <c r="B102" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>147</v>
@@ -5396,12 +5409,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>45153.771352777781</v>
       </c>
       <c r="B103" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>148</v>
@@ -5440,12 +5453,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>45153.771822442126</v>
       </c>
       <c r="B104" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>149</v>
@@ -5484,12 +5497,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>45154.687340254633</v>
       </c>
       <c r="B105" s="3">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>150</v>
@@ -5528,12 +5541,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>45154.697651446761</v>
       </c>
       <c r="B106" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>152</v>
@@ -5572,12 +5585,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>45154.721298287041</v>
       </c>
       <c r="B107" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>153</v>
@@ -5616,12 +5629,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>45154.721640625001</v>
       </c>
       <c r="B108" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>154</v>
@@ -5660,12 +5673,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>45154.722015046296</v>
       </c>
       <c r="B109" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>155</v>
@@ -5704,12 +5717,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>45154.722842418982</v>
       </c>
       <c r="B110" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>156</v>
@@ -5748,12 +5761,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>45156.65563734954</v>
       </c>
       <c r="B111" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>157</v>
@@ -5792,12 +5805,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>45157.64598346065</v>
       </c>
       <c r="B112" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>158</v>
@@ -5836,12 +5849,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>45157.654924895833</v>
       </c>
       <c r="B113" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>159</v>
@@ -5880,12 +5893,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>45157.66257349537</v>
       </c>
       <c r="B114" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>160</v>
@@ -5924,12 +5937,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>45157.691951388886</v>
       </c>
       <c r="B115" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>161</v>
@@ -5968,12 +5981,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>45157.768152384262</v>
       </c>
       <c r="B116" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>162</v>
@@ -6012,12 +6025,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>45157.775486087965</v>
       </c>
       <c r="B117" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>163</v>
@@ -6056,12 +6069,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>45157.783748449074</v>
       </c>
       <c r="B118" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>164</v>
@@ -6100,12 +6113,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>45157.79183234954</v>
       </c>
       <c r="B119" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>165</v>
@@ -6144,12 +6157,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>45157.82491516204</v>
       </c>
       <c r="B120" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>166</v>
@@ -6188,12 +6201,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>45157.858194189816</v>
       </c>
       <c r="B121" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>167</v>
@@ -6232,12 +6245,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>45157.903089305561</v>
       </c>
       <c r="B122" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>168</v>
@@ -6276,12 +6289,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>45158.311350937496</v>
       </c>
       <c r="B123" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>169</v>
@@ -6320,12 +6333,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>45158.506874131941</v>
       </c>
       <c r="B124" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>170</v>
@@ -6364,12 +6377,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>45158.565456608798</v>
       </c>
       <c r="B125" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>171</v>
@@ -6408,12 +6421,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>45158.635993935182</v>
       </c>
       <c r="B126" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>172</v>
@@ -6452,12 +6465,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>45158.731054895834</v>
       </c>
       <c r="B127" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>173</v>
@@ -6496,12 +6509,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>45159.698237094912</v>
       </c>
       <c r="B128" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>174</v>
@@ -6540,12 +6553,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>45159.708183969909</v>
       </c>
       <c r="B129" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>175</v>
@@ -6584,12 +6597,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>45159.708372893518</v>
       </c>
       <c r="B130" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>176</v>
@@ -6628,12 +6641,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>45159.708380879631</v>
       </c>
       <c r="B131" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>177</v>
@@ -6672,12 +6685,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>45159.712441388889</v>
       </c>
       <c r="B132" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>178</v>
@@ -6716,12 +6729,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>45159.713947280092</v>
       </c>
       <c r="B133" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>180</v>
@@ -6760,12 +6773,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>45159.718385162036</v>
       </c>
       <c r="B134" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>181</v>
@@ -6804,12 +6817,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>45159.72976725694</v>
       </c>
       <c r="B135" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>182</v>
@@ -6848,12 +6861,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>45159.757255069446</v>
       </c>
       <c r="B136" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>183</v>
@@ -6892,12 +6905,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>45159.767265497685</v>
       </c>
       <c r="B137" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>184</v>
@@ -6936,12 +6949,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>45160.365616782408</v>
       </c>
       <c r="B138" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>185</v>
@@ -6980,12 +6993,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>45160.515888958333</v>
       </c>
       <c r="B139" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>186</v>
@@ -7024,12 +7037,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>45160.519244560186</v>
       </c>
       <c r="B140" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>187</v>
@@ -7068,12 +7081,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>45160.519763645832</v>
       </c>
       <c r="B141" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>188</v>
@@ -7112,12 +7125,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>45160.52029320602</v>
       </c>
       <c r="B142" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>190</v>
@@ -7156,12 +7169,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>45160.532838935185</v>
       </c>
       <c r="B143" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>191</v>
@@ -7200,12 +7213,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>45160.548235821756</v>
       </c>
       <c r="B144" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>192</v>
@@ -7244,12 +7257,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>45160.572161296295</v>
       </c>
       <c r="B145" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>193</v>
@@ -7288,12 +7301,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>45160.572217372683</v>
       </c>
       <c r="B146" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>194</v>
@@ -7332,12 +7345,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>45160.573586168983</v>
       </c>
       <c r="B147" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>195</v>
@@ -7376,12 +7389,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>45160.57362087963</v>
       </c>
       <c r="B148" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>196</v>
@@ -7420,12 +7433,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>45160.583482650458</v>
       </c>
       <c r="B149" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>197</v>
@@ -7464,12 +7477,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>45160.586347233795</v>
       </c>
       <c r="B150" s="3">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>198</v>
@@ -7508,12 +7521,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>45160.586815300921</v>
       </c>
       <c r="B151" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>199</v>
@@ -7552,12 +7565,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>45161.886528425923</v>
       </c>
       <c r="B152" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>200</v>
@@ -7596,7 +7609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:14" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Educación Sexual.xlsx
+++ b/Excel/Educación Sexual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajos\Analisis De Datos\TrabajoDeAnalisisDeDatos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421CD068-AC7D-408E-9C42-551A85C7FC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158EA631-ACC1-466D-88C9-7FE7DEB2BEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,9 +648,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -690,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,7 +912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D293" sqref="D293"/>
+      <selection pane="bottomLeft" activeCell="B167" sqref="B167:B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -970,7 +969,7 @@
         <v>45151.544490844906</v>
       </c>
       <c r="B2" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -1014,7 +1013,7 @@
         <v>45151.549103379628</v>
       </c>
       <c r="B3" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
@@ -1058,7 +1057,7 @@
         <v>45151.54916790509</v>
       </c>
       <c r="B4" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -1102,7 +1101,7 @@
         <v>45151.549576898149</v>
       </c>
       <c r="B5" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>36</v>
@@ -1146,7 +1145,7 @@
         <v>45151.5509241088</v>
       </c>
       <c r="B6" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -1190,7 +1189,7 @@
         <v>45151.55169925926</v>
       </c>
       <c r="B7" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
@@ -1234,7 +1233,7 @@
         <v>45151.551913564814</v>
       </c>
       <c r="B8" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -1278,7 +1277,7 @@
         <v>45151.55194873843</v>
       </c>
       <c r="B9" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>44</v>
@@ -1322,7 +1321,7 @@
         <v>45151.552805833329</v>
       </c>
       <c r="B10" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>46</v>
@@ -1366,7 +1365,7 @@
         <v>45151.55292962963</v>
       </c>
       <c r="B11" s="3">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>48</v>
@@ -1410,7 +1409,7 @@
         <v>45151.553631620365</v>
       </c>
       <c r="B12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>51</v>
@@ -1454,7 +1453,7 @@
         <v>45151.55486290509</v>
       </c>
       <c r="B13" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>52</v>
@@ -1498,7 +1497,7 @@
         <v>45151.555666087967</v>
       </c>
       <c r="B14" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>54</v>
@@ -1542,7 +1541,7 @@
         <v>45151.555779988426</v>
       </c>
       <c r="B15" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>55</v>
@@ -1586,7 +1585,7 @@
         <v>45151.556441666668</v>
       </c>
       <c r="B16" s="3">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>56</v>
@@ -1630,7 +1629,7 @@
         <v>45151.558708055556</v>
       </c>
       <c r="B17" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>57</v>
@@ -1674,7 +1673,7 @@
         <v>45151.559275196763</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>58</v>
@@ -1718,7 +1717,7 @@
         <v>45151.561280706017</v>
       </c>
       <c r="B19" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>59</v>
@@ -1762,7 +1761,7 @@
         <v>45151.561673229167</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>60</v>
@@ -1806,7 +1805,7 @@
         <v>45151.563925960647</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>61</v>
@@ -1850,7 +1849,7 @@
         <v>45151.573992430553</v>
       </c>
       <c r="B22" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>62</v>
@@ -1894,7 +1893,7 @@
         <v>45151.613719710644</v>
       </c>
       <c r="B23" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>63</v>
@@ -1938,7 +1937,7 @@
         <v>45151.643784270833</v>
       </c>
       <c r="B24" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>65</v>
@@ -1982,7 +1981,7 @@
         <v>45151.645406550924</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>66</v>
@@ -2021,12 +2020,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45151.652625162038</v>
       </c>
       <c r="B26" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>67</v>
@@ -2065,12 +2064,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45151.673363287038</v>
       </c>
       <c r="B27" s="3">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>68</v>
@@ -2109,12 +2108,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45151.731240173613</v>
       </c>
       <c r="B28" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>69</v>
@@ -2153,12 +2152,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45151.784893009259</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>70</v>
@@ -2197,12 +2196,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45151.785315231478</v>
       </c>
       <c r="B30" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>71</v>
@@ -2241,12 +2240,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45151.785725497684</v>
       </c>
       <c r="B31" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>72</v>
@@ -2285,12 +2284,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45151.786394236115</v>
       </c>
       <c r="B32" s="3">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>73</v>
@@ -2329,12 +2328,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45151.786531701393</v>
       </c>
       <c r="B33" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>74</v>
@@ -2373,12 +2372,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45151.787184583329</v>
       </c>
       <c r="B34" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>75</v>
@@ -2417,12 +2416,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45151.787480671293</v>
       </c>
       <c r="B35" s="3">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>76</v>
@@ -2461,12 +2460,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45151.788132905094</v>
       </c>
       <c r="B36" s="3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>77</v>
@@ -2505,12 +2504,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45151.788435833332</v>
       </c>
       <c r="B37" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>78</v>
@@ -2549,12 +2548,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45151.790296585648</v>
       </c>
       <c r="B38" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>79</v>
@@ -2593,12 +2592,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45151.790741342593</v>
       </c>
       <c r="B39" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>80</v>
@@ -2642,7 +2641,7 @@
         <v>45151.791673888889</v>
       </c>
       <c r="B40" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>81</v>
@@ -2686,7 +2685,7 @@
         <v>45151.792119120371</v>
       </c>
       <c r="B41" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>83</v>
@@ -2730,7 +2729,7 @@
         <v>45151.793880648147</v>
       </c>
       <c r="B42" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>84</v>
@@ -2774,7 +2773,7 @@
         <v>45151.794075451384</v>
       </c>
       <c r="B43" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>86</v>
@@ -2818,7 +2817,7 @@
         <v>45151.794359942127</v>
       </c>
       <c r="B44" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>87</v>
@@ -2862,7 +2861,7 @@
         <v>45151.795504814814</v>
       </c>
       <c r="B45" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>88</v>
@@ -2906,7 +2905,7 @@
         <v>45151.795927777777</v>
       </c>
       <c r="B46" s="3">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>89</v>
@@ -2950,7 +2949,7 @@
         <v>45151.79593792824</v>
       </c>
       <c r="B47" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>90</v>
@@ -2994,7 +2993,7 @@
         <v>45151.798876747685</v>
       </c>
       <c r="B48" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>91</v>
@@ -3038,7 +3037,7 @@
         <v>45151.800203182866</v>
       </c>
       <c r="B49" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>92</v>
@@ -3082,7 +3081,7 @@
         <v>45151.800698680556</v>
       </c>
       <c r="B50" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>93</v>
@@ -3126,7 +3125,7 @@
         <v>45151.801323842592</v>
       </c>
       <c r="B51" s="3">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>94</v>
@@ -3170,7 +3169,7 @@
         <v>45151.801741354167</v>
       </c>
       <c r="B52" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>95</v>
@@ -3214,7 +3213,7 @@
         <v>45151.802052256942</v>
       </c>
       <c r="B53" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>97</v>
@@ -3258,7 +3257,7 @@
         <v>45151.80475836806</v>
       </c>
       <c r="B54" s="3">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>98</v>
@@ -3302,7 +3301,7 @@
         <v>45151.805143113423</v>
       </c>
       <c r="B55" s="3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>99</v>
@@ -3346,7 +3345,7 @@
         <v>45151.807513090273</v>
       </c>
       <c r="B56" s="3">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>100</v>
@@ -3390,7 +3389,7 @@
         <v>45151.807621504631</v>
       </c>
       <c r="B57" s="3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>101</v>
@@ -3434,7 +3433,7 @@
         <v>45151.810283252315</v>
       </c>
       <c r="B58" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>102</v>
@@ -3478,7 +3477,7 @@
         <v>45151.813982175925</v>
       </c>
       <c r="B59" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>103</v>
@@ -3522,7 +3521,7 @@
         <v>45151.814243194443</v>
       </c>
       <c r="B60" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>104</v>
@@ -3566,7 +3565,7 @@
         <v>45151.817403680558</v>
       </c>
       <c r="B61" s="3">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>105</v>
@@ -3610,7 +3609,7 @@
         <v>45151.817978703708</v>
       </c>
       <c r="B62" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>106</v>
@@ -3654,7 +3653,7 @@
         <v>45151.818382268517</v>
       </c>
       <c r="B63" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>107</v>
@@ -3698,7 +3697,7 @@
         <v>45151.819068391203</v>
       </c>
       <c r="B64" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>108</v>
@@ -3742,7 +3741,7 @@
         <v>45151.82035091435</v>
       </c>
       <c r="B65" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>110</v>
@@ -3786,7 +3785,7 @@
         <v>45151.82788005787</v>
       </c>
       <c r="B66" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>111</v>
@@ -3830,7 +3829,7 @@
         <v>45151.838443275468</v>
       </c>
       <c r="B67" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>112</v>
@@ -3874,7 +3873,7 @@
         <v>45151.840104201387</v>
       </c>
       <c r="B68" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>113</v>
@@ -3918,7 +3917,7 @@
         <v>45151.843709236113</v>
       </c>
       <c r="B69" s="3">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>114</v>
@@ -3962,7 +3961,7 @@
         <v>45151.852884953703</v>
       </c>
       <c r="B70" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>115</v>
@@ -4006,7 +4005,7 @@
         <v>45151.855338344903</v>
       </c>
       <c r="B71" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>116</v>
@@ -4050,7 +4049,7 @@
         <v>45151.8560062037</v>
       </c>
       <c r="B72" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>117</v>
@@ -4094,7 +4093,7 @@
         <v>45151.856827465279</v>
       </c>
       <c r="B73" s="3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>118</v>
@@ -4138,7 +4137,7 @@
         <v>45151.857394432867</v>
       </c>
       <c r="B74" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>119</v>
@@ -4182,7 +4181,7 @@
         <v>45151.866939502317</v>
       </c>
       <c r="B75" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>120</v>
@@ -4226,7 +4225,7 @@
         <v>45151.914987013894</v>
       </c>
       <c r="B76" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>121</v>
@@ -4270,7 +4269,7 @@
         <v>45151.957029722224</v>
       </c>
       <c r="B77" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>122</v>
@@ -4314,7 +4313,7 @@
         <v>45151.97930042824</v>
       </c>
       <c r="B78" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>123</v>
@@ -4358,7 +4357,7 @@
         <v>45152.012824837962</v>
       </c>
       <c r="B79" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>124</v>
@@ -4402,7 +4401,7 @@
         <v>45152.389457048615</v>
       </c>
       <c r="B80" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>125</v>
@@ -4446,7 +4445,7 @@
         <v>45152.528335115741</v>
       </c>
       <c r="B81" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>126</v>
@@ -4490,7 +4489,7 @@
         <v>45152.593485347221</v>
       </c>
       <c r="B82" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>127</v>
@@ -4534,7 +4533,7 @@
         <v>45152.594186597227</v>
       </c>
       <c r="B83" s="3">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>128</v>
@@ -4578,7 +4577,7 @@
         <v>45152.59700569445</v>
       </c>
       <c r="B84" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>129</v>
@@ -4622,7 +4621,7 @@
         <v>45152.61150431713</v>
       </c>
       <c r="B85" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>130</v>
@@ -4666,7 +4665,7 @@
         <v>45152.618777777781</v>
       </c>
       <c r="B86" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>131</v>
@@ -4710,7 +4709,7 @@
         <v>45152.626213333337</v>
       </c>
       <c r="B87" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>132</v>
@@ -4798,7 +4797,7 @@
         <v>45152.628997662032</v>
       </c>
       <c r="B89" s="3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>134</v>
@@ -4842,7 +4841,7 @@
         <v>45152.629473379631</v>
       </c>
       <c r="B90" s="3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>135</v>
@@ -4886,7 +4885,7 @@
         <v>45152.631957511578</v>
       </c>
       <c r="B91" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>136</v>
@@ -4930,7 +4929,7 @@
         <v>45152.632456087958</v>
       </c>
       <c r="B92" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>137</v>
@@ -4974,7 +4973,7 @@
         <v>45152.632816689817</v>
       </c>
       <c r="B93" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>138</v>
@@ -5018,7 +5017,7 @@
         <v>45152.633785729166</v>
       </c>
       <c r="B94" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>67</v>
@@ -5062,7 +5061,7 @@
         <v>45152.641606412042</v>
       </c>
       <c r="B95" s="3">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>140</v>
@@ -5106,7 +5105,7 @@
         <v>45152.702809386574</v>
       </c>
       <c r="B96" s="3">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>141</v>
@@ -5150,7 +5149,7 @@
         <v>45153.766807233798</v>
       </c>
       <c r="B97" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>142</v>
@@ -5194,7 +5193,7 @@
         <v>45153.767844467591</v>
       </c>
       <c r="B98" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>143</v>
@@ -5238,7 +5237,7 @@
         <v>45153.768166041671</v>
       </c>
       <c r="B99" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>144</v>
@@ -5282,7 +5281,7 @@
         <v>45153.768687743053</v>
       </c>
       <c r="B100" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>145</v>
@@ -5326,7 +5325,7 @@
         <v>45153.769181782409</v>
       </c>
       <c r="B101" s="3">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>146</v>
@@ -5370,7 +5369,7 @@
         <v>45153.770053576387</v>
       </c>
       <c r="B102" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>147</v>
@@ -5414,7 +5413,7 @@
         <v>45153.771352777781</v>
       </c>
       <c r="B103" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>148</v>
@@ -5458,7 +5457,7 @@
         <v>45153.771822442126</v>
       </c>
       <c r="B104" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>149</v>
@@ -5502,7 +5501,7 @@
         <v>45154.687340254633</v>
       </c>
       <c r="B105" s="3">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>150</v>
@@ -5546,7 +5545,7 @@
         <v>45154.697651446761</v>
       </c>
       <c r="B106" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>152</v>
@@ -5590,7 +5589,7 @@
         <v>45154.721298287041</v>
       </c>
       <c r="B107" s="3">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>153</v>
@@ -5634,7 +5633,7 @@
         <v>45154.721640625001</v>
       </c>
       <c r="B108" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>154</v>
@@ -5678,7 +5677,7 @@
         <v>45154.722015046296</v>
       </c>
       <c r="B109" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>155</v>
@@ -5722,7 +5721,7 @@
         <v>45154.722842418982</v>
       </c>
       <c r="B110" s="3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>156</v>
@@ -5766,7 +5765,7 @@
         <v>45156.65563734954</v>
       </c>
       <c r="B111" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>157</v>
@@ -5810,7 +5809,7 @@
         <v>45157.64598346065</v>
       </c>
       <c r="B112" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>158</v>
@@ -5854,7 +5853,7 @@
         <v>45157.654924895833</v>
       </c>
       <c r="B113" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>159</v>
@@ -5898,7 +5897,7 @@
         <v>45157.66257349537</v>
       </c>
       <c r="B114" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>160</v>
@@ -5942,7 +5941,7 @@
         <v>45157.691951388886</v>
       </c>
       <c r="B115" s="3">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>161</v>
@@ -5986,7 +5985,7 @@
         <v>45157.768152384262</v>
       </c>
       <c r="B116" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>162</v>
@@ -6030,7 +6029,7 @@
         <v>45157.775486087965</v>
       </c>
       <c r="B117" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>163</v>
@@ -6074,7 +6073,7 @@
         <v>45157.783748449074</v>
       </c>
       <c r="B118" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>164</v>
@@ -6118,7 +6117,7 @@
         <v>45157.79183234954</v>
       </c>
       <c r="B119" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>165</v>
@@ -6162,7 +6161,7 @@
         <v>45157.82491516204</v>
       </c>
       <c r="B120" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>166</v>
@@ -6206,7 +6205,7 @@
         <v>45157.858194189816</v>
       </c>
       <c r="B121" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>167</v>
@@ -6250,7 +6249,7 @@
         <v>45157.903089305561</v>
       </c>
       <c r="B122" s="3">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>168</v>
@@ -6294,7 +6293,7 @@
         <v>45158.311350937496</v>
       </c>
       <c r="B123" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>169</v>
@@ -6338,7 +6337,7 @@
         <v>45158.506874131941</v>
       </c>
       <c r="B124" s="3">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>170</v>
@@ -6382,7 +6381,7 @@
         <v>45158.565456608798</v>
       </c>
       <c r="B125" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>171</v>
@@ -6426,7 +6425,7 @@
         <v>45158.635993935182</v>
       </c>
       <c r="B126" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>172</v>
@@ -6470,7 +6469,7 @@
         <v>45158.731054895834</v>
       </c>
       <c r="B127" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>173</v>
@@ -6514,7 +6513,7 @@
         <v>45159.698237094912</v>
       </c>
       <c r="B128" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>174</v>
@@ -6558,7 +6557,7 @@
         <v>45159.708183969909</v>
       </c>
       <c r="B129" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>175</v>
@@ -6602,7 +6601,7 @@
         <v>45159.708372893518</v>
       </c>
       <c r="B130" s="3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>176</v>
@@ -6646,7 +6645,7 @@
         <v>45159.708380879631</v>
       </c>
       <c r="B131" s="3">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>177</v>
@@ -6690,7 +6689,7 @@
         <v>45159.712441388889</v>
       </c>
       <c r="B132" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>178</v>
@@ -6734,7 +6733,7 @@
         <v>45159.713947280092</v>
       </c>
       <c r="B133" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>180</v>
@@ -6778,7 +6777,7 @@
         <v>45159.718385162036</v>
       </c>
       <c r="B134" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>181</v>
@@ -6822,7 +6821,7 @@
         <v>45159.72976725694</v>
       </c>
       <c r="B135" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>182</v>
@@ -6866,7 +6865,7 @@
         <v>45159.757255069446</v>
       </c>
       <c r="B136" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>183</v>
@@ -6910,7 +6909,7 @@
         <v>45159.767265497685</v>
       </c>
       <c r="B137" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>184</v>
@@ -6954,7 +6953,7 @@
         <v>45160.365616782408</v>
       </c>
       <c r="B138" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>185</v>
@@ -6998,7 +6997,7 @@
         <v>45160.515888958333</v>
       </c>
       <c r="B139" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>186</v>
@@ -7042,7 +7041,7 @@
         <v>45160.519244560186</v>
       </c>
       <c r="B140" s="3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>187</v>
@@ -7086,7 +7085,7 @@
         <v>45160.519763645832</v>
       </c>
       <c r="B141" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>188</v>
@@ -7130,7 +7129,7 @@
         <v>45160.52029320602</v>
       </c>
       <c r="B142" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>190</v>
@@ -7174,7 +7173,7 @@
         <v>45160.532838935185</v>
       </c>
       <c r="B143" s="3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>191</v>
@@ -7218,7 +7217,7 @@
         <v>45160.548235821756</v>
       </c>
       <c r="B144" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>192</v>
@@ -7262,7 +7261,7 @@
         <v>45160.572161296295</v>
       </c>
       <c r="B145" s="3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>193</v>
@@ -7306,7 +7305,7 @@
         <v>45160.572217372683</v>
       </c>
       <c r="B146" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>194</v>
@@ -7350,7 +7349,7 @@
         <v>45160.573586168983</v>
       </c>
       <c r="B147" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>195</v>
@@ -7394,7 +7393,7 @@
         <v>45160.57362087963</v>
       </c>
       <c r="B148" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>196</v>
@@ -7438,7 +7437,7 @@
         <v>45160.583482650458</v>
       </c>
       <c r="B149" s="3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>197</v>
@@ -7482,7 +7481,7 @@
         <v>45160.586347233795</v>
       </c>
       <c r="B150" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>198</v>
@@ -7526,7 +7525,7 @@
         <v>45160.586815300921</v>
       </c>
       <c r="B151" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>199</v>
@@ -7570,7 +7569,7 @@
         <v>45161.886528425923</v>
       </c>
       <c r="B152" s="3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>200</v>
